--- a/koramangala/Volunteer - Student Rating Form (Responses).xlsx
+++ b/koramangala/Volunteer - Student Rating Form (Responses).xlsx
@@ -1,70 +1,79 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Form Responses 1" sheetId="1" r:id="rId3"/>
+    <sheet name="Form Responses 1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="156">
   <si>
-    <t>Timestamp</t>
-  </si>
-  <si>
-    <t>Choose the activity</t>
-  </si>
-  <si>
-    <t>Choose session</t>
-  </si>
-  <si>
-    <t>Student Name</t>
-  </si>
-  <si>
-    <t>Student Class and section</t>
-  </si>
-  <si>
-    <t>Rate the student from 1 - 5</t>
-  </si>
-  <si>
-    <t>Dance</t>
-  </si>
-  <si>
-    <t>Session 1</t>
-  </si>
-  <si>
-    <t>Bhavani</t>
-  </si>
-  <si>
-    <t>Huligavya</t>
-  </si>
-  <si>
-    <t>Kavya</t>
-  </si>
-  <si>
-    <t>Public speaking</t>
-  </si>
-  <si>
-    <t>Ramya  R</t>
-  </si>
-  <si>
-    <t>Pooja</t>
-  </si>
-  <si>
-    <t>Mehak</t>
-  </si>
-  <si>
-    <t>Karunya</t>
-  </si>
-  <si>
-    <t>C Nivedha</t>
-  </si>
-  <si>
-    <t>Divya M</t>
+    <t xml:space="preserve">Timestamp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose the activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose session</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Student Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Student Class and section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rate the student from 1 - 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Session 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhavani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huligavya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kavya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Public speaking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramya  R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pooja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mehak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karunya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C Nivedha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Divya M</t>
   </si>
   <si>
     <t xml:space="preserve">Gangamma </t>
@@ -73,503 +82,560 @@
     <t xml:space="preserve">Prajwal </t>
   </si>
   <si>
-    <t>Shashi</t>
+    <t xml:space="preserve">Shashi</t>
   </si>
   <si>
     <t xml:space="preserve">Reshma </t>
   </si>
   <si>
-    <t>Sanjana</t>
-  </si>
-  <si>
-    <t>Saritha</t>
-  </si>
-  <si>
-    <t>Hanifa</t>
-  </si>
-  <si>
-    <t>Shreya</t>
-  </si>
-  <si>
-    <t>Sham S</t>
-  </si>
-  <si>
-    <t>Ramya M</t>
+    <t xml:space="preserve">Sanjana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saritha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hanifa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shreya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sham S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramya M</t>
   </si>
   <si>
     <t xml:space="preserve">Harshitha </t>
   </si>
   <si>
-    <t>Computer</t>
-  </si>
-  <si>
-    <t>Riya</t>
-  </si>
-  <si>
-    <t>5th</t>
-  </si>
-  <si>
-    <t>Husna</t>
-  </si>
-  <si>
-    <t>Tamana</t>
-  </si>
-  <si>
-    <t>Bharath</t>
-  </si>
-  <si>
-    <t>Chandru</t>
-  </si>
-  <si>
-    <t>Shivkumar</t>
-  </si>
-  <si>
-    <t>Sandy S</t>
-  </si>
-  <si>
-    <t>Meesala Shruthi</t>
-  </si>
-  <si>
-    <t>Akshaya reddy</t>
-  </si>
-  <si>
-    <t>Stephen Raj</t>
-  </si>
-  <si>
-    <t>Session 2</t>
-  </si>
-  <si>
-    <t>Suhail</t>
-  </si>
-  <si>
-    <t>Nisha v</t>
-  </si>
-  <si>
-    <t>Indhu</t>
-  </si>
-  <si>
-    <t>Kabitha</t>
-  </si>
-  <si>
-    <t>Madhumitha</t>
-  </si>
-  <si>
-    <t>Nuhira</t>
-  </si>
-  <si>
-    <t>Sania</t>
-  </si>
-  <si>
-    <t>Anitha</t>
-  </si>
-  <si>
-    <t>Prithvi</t>
-  </si>
-  <si>
-    <t>Veena</t>
-  </si>
-  <si>
-    <t>Mahesh</t>
-  </si>
-  <si>
-    <t>Gangadhar</t>
-  </si>
-  <si>
-    <t>Ramya</t>
-  </si>
-  <si>
-    <t>Sinchana</t>
-  </si>
-  <si>
-    <t>Indresh</t>
-  </si>
-  <si>
-    <t>Deepa R</t>
-  </si>
-  <si>
-    <t>Class 8</t>
-  </si>
-  <si>
-    <t>Punith</t>
-  </si>
-  <si>
-    <t>Vikas</t>
-  </si>
-  <si>
-    <t>Reshma A</t>
+    <t xml:space="preserve">Computer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5th</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Husna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tamana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bharath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chandru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shivkumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandy S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meesala Shruthi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akshaya reddy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stephen Raj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Session 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suhail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nisha v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indhu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabitha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madhumitha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuhira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anitha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prithvi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mahesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gangadhar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinchana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indresh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deepa R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Punith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vikas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reshma A</t>
   </si>
   <si>
     <t xml:space="preserve">Leena </t>
   </si>
   <si>
-    <t>Huligavva</t>
-  </si>
-  <si>
-    <t>Class 5</t>
-  </si>
-  <si>
-    <t>Session 3</t>
-  </si>
-  <si>
-    <t>Sindhu ml</t>
-  </si>
-  <si>
-    <t>Class 6</t>
-  </si>
-  <si>
-    <t>Bharat</t>
-  </si>
-  <si>
-    <t>Devi</t>
-  </si>
-  <si>
-    <t>Eeshwari</t>
-  </si>
-  <si>
-    <t>Gowri</t>
-  </si>
-  <si>
-    <t>Rameez Mulla</t>
-  </si>
-  <si>
-    <t>Sinchana N R</t>
-  </si>
-  <si>
-    <t>Vijay M</t>
-  </si>
-  <si>
-    <t>Tasmiya</t>
-  </si>
-  <si>
-    <t>Vidya</t>
-  </si>
-  <si>
-    <t>Archana</t>
-  </si>
-  <si>
-    <t>Daniel</t>
-  </si>
-  <si>
-    <t>Husna R</t>
-  </si>
-  <si>
-    <t>Deluwar</t>
-  </si>
-  <si>
-    <t>Robin</t>
-  </si>
-  <si>
-    <t>Jayashree</t>
-  </si>
-  <si>
-    <t>Ismail</t>
-  </si>
-  <si>
-    <t>Sarath Kumar</t>
-  </si>
-  <si>
-    <t>Art and Craft</t>
-  </si>
-  <si>
-    <t>Nitish</t>
-  </si>
-  <si>
-    <t>Nuheera</t>
-  </si>
-  <si>
-    <t>Ajay</t>
-  </si>
-  <si>
-    <t>Sandhya S</t>
-  </si>
-  <si>
-    <t>Prajwal</t>
-  </si>
-  <si>
-    <t>Saif</t>
-  </si>
-  <si>
-    <t>Annamalai</t>
-  </si>
-  <si>
-    <t>Sandhya Rani</t>
-  </si>
-  <si>
-    <t>Deepa</t>
-  </si>
-  <si>
-    <t>Jamuna</t>
-  </si>
-  <si>
-    <t>Science</t>
-  </si>
-  <si>
-    <t>Punit</t>
-  </si>
-  <si>
-    <t>7-A</t>
-  </si>
-  <si>
-    <t>Ranjith Kumar</t>
-  </si>
-  <si>
-    <t>Vikash</t>
-  </si>
-  <si>
-    <t>Drama</t>
-  </si>
-  <si>
-    <t>Indumathi</t>
-  </si>
-  <si>
-    <t>Sandhya</t>
-  </si>
-  <si>
-    <t>Vijay</t>
-  </si>
-  <si>
-    <t>Sandhya V</t>
-  </si>
-  <si>
-    <t>Shaahi</t>
-  </si>
-  <si>
-    <t>Huligama</t>
-  </si>
-  <si>
-    <t>Leena</t>
-  </si>
-  <si>
-    <t>Indu</t>
-  </si>
-  <si>
-    <t>8th</t>
-  </si>
-  <si>
-    <t>Singing</t>
-  </si>
-  <si>
-    <t>Suhai</t>
-  </si>
-  <si>
-    <t>Deulwar</t>
-  </si>
-  <si>
-    <t>Tabhita</t>
-  </si>
-  <si>
-    <t>7th</t>
-  </si>
-  <si>
-    <t>Sanya</t>
-  </si>
-  <si>
-    <t>Nethravati</t>
-  </si>
-  <si>
-    <t>Md Zayad</t>
-  </si>
-  <si>
-    <t>Guitar</t>
-  </si>
-  <si>
-    <t>Mohammed zahid</t>
-  </si>
-  <si>
-    <t>Eshwari</t>
-  </si>
-  <si>
-    <t>Nisha V</t>
-  </si>
-  <si>
-    <t>Sharath Kumar</t>
-  </si>
-  <si>
-    <t>Tasmya</t>
-  </si>
-  <si>
-    <t>William P</t>
-  </si>
-  <si>
-    <t>Danniel</t>
-  </si>
-  <si>
-    <t>Gouwri</t>
-  </si>
-  <si>
-    <t>Niveda</t>
-  </si>
-  <si>
-    <t>Maruthi</t>
-  </si>
-  <si>
-    <t>Ganesh</t>
-  </si>
-  <si>
-    <t>Thabitha</t>
-  </si>
-  <si>
-    <t>Gangama</t>
-  </si>
-  <si>
-    <t>Ranjith kumar</t>
-  </si>
-  <si>
-    <t>Sindhu</t>
-  </si>
-  <si>
-    <t>Vignesh v</t>
-  </si>
-  <si>
-    <t>Willian</t>
-  </si>
-  <si>
-    <t>Sham</t>
-  </si>
-  <si>
-    <t>Abhishek</t>
-  </si>
-  <si>
-    <t>Stephen raj</t>
-  </si>
-  <si>
-    <t>Ramya R.</t>
-  </si>
-  <si>
-    <t>Anusooya</t>
-  </si>
-  <si>
-    <t>Tamanna</t>
-  </si>
-  <si>
-    <t>Hussain</t>
-  </si>
-  <si>
-    <t>Shivu</t>
-  </si>
-  <si>
-    <t>Indhumathi</t>
-  </si>
-  <si>
-    <t>Harshitha</t>
-  </si>
-  <si>
-    <t>Reshma</t>
-  </si>
-  <si>
-    <t>Maruti</t>
-  </si>
-  <si>
-    <t>Niteesh</t>
-  </si>
-  <si>
-    <t>Tanvir Pasha</t>
-  </si>
-  <si>
-    <t>Nisha</t>
-  </si>
-  <si>
-    <t>Sharath kumar</t>
-  </si>
-  <si>
-    <t>Mehak S</t>
-  </si>
-  <si>
-    <t>Anusooya devi</t>
-  </si>
-  <si>
-    <t>Gouri</t>
+    <t xml:space="preserve">Huligavva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Session 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sindhu ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bharat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eeshwari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gowri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rameez Mulla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinchana N R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vijay M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tasmiya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vidya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Archana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Husna R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deluwar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jayashree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ismail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sarath Kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Art and Craft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nitish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuheera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandhya S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prajwal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annamalai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandhya Rani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deepa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jamuna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Science</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Punit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ranjith Kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vikash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indumathi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandhya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vijay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandhya V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shaahi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huligama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8th</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suhai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deulwar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabhita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7th</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nethravati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Md Zayad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guitar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mohammed zahid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eshwari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nisha V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sharath Kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tasmya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">William P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danniel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gouwri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niveda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maruthi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ganesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thabitha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gangama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ranjith kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sindhu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vignesh v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Willian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abhishek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stephen raj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramya R.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anusooya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tamanna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hussain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shivu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indhumathi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harshitha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reshma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maruti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niteesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanvir Pasha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nisha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sharath kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mehak S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anusooya devi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gouri</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="D/M/YYYY\ H:MM:SS"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="5">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:F201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="1" max="12" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="1" style="0" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="14.43"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1">
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
         <v>43442.4990819213</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -581,16 +647,16 @@
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1">
-        <v>43442.50105704861</v>
+      <c r="E2" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>43442.5010570486</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
@@ -601,16 +667,16 @@
       <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="E3" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2" t="n">
         <v>2.9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1">
-        <v>43442.503244259264</v>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>43442.5032442593</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
@@ -621,16 +687,16 @@
       <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="E4" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2" t="n">
         <v>3.1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <v>43442.509445497686</v>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>43442.5094454977</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>11</v>
@@ -641,16 +707,16 @@
       <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="E5" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F5" s="2" t="n">
         <v>4.2</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>43442.509768749995</v>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>43442.50976875</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>6</v>
@@ -661,15 +727,15 @@
       <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1">
+      <c r="E6" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
         <v>43442.5101222338</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -681,16 +747,16 @@
       <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="E7" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F7" s="2" t="n">
         <v>4.2</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1">
-        <v>43442.51050315972</v>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>43442.5105031597</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>6</v>
@@ -701,16 +767,16 @@
       <c r="D8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="E8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F8" s="2" t="n">
         <v>3.8</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <v>43442.51310644676</v>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>43442.5131064468</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>6</v>
@@ -721,16 +787,16 @@
       <c r="D9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="F9" s="2">
+      <c r="E9" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F9" s="2" t="n">
         <v>4.2</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <v>43442.51539545139</v>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>43442.5153954514</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>6</v>
@@ -741,16 +807,16 @@
       <c r="D10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="F10" s="2">
+      <c r="E10" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F10" s="2" t="n">
         <v>4.2</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>43442.51752445602</v>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>43442.517524456</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>6</v>
@@ -761,16 +827,16 @@
       <c r="D11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="F11" s="2">
+      <c r="E11" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F11" s="2" t="n">
         <v>3.5</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1">
-        <v>43442.517767453704</v>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>43442.5177674537</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>6</v>
@@ -781,16 +847,16 @@
       <c r="D12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F12" s="2">
+      <c r="E12" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F12" s="2" t="n">
         <v>2.8</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1">
-        <v>43442.51801534722</v>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>43442.5180153472</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>6</v>
@@ -801,16 +867,16 @@
       <c r="D13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="F13" s="2">
+      <c r="E13" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F13" s="2" t="n">
         <v>4.8</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1">
-        <v>43442.51839667824</v>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>43442.5183966782</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>6</v>
@@ -821,16 +887,16 @@
       <c r="D14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F14" s="2">
+      <c r="E14" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F14" s="2" t="n">
         <v>3.8</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1">
-        <v>43442.51891428241</v>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>43442.5189142824</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>6</v>
@@ -841,16 +907,16 @@
       <c r="D15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F15" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1">
-        <v>43442.519791122686</v>
+      <c r="E15" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>43442.5197911227</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>6</v>
@@ -861,16 +927,16 @@
       <c r="D16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="F16" s="2">
+      <c r="E16" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F16" s="2" t="n">
         <v>3.5</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1">
-        <v>43442.52006643519</v>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>43442.5200664352</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>6</v>
@@ -881,16 +947,16 @@
       <c r="D17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="F17" s="2">
+      <c r="E17" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F17" s="2" t="n">
         <v>4.1</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1">
-        <v>43442.521012997684</v>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>43442.5210129977</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>6</v>
@@ -901,16 +967,16 @@
       <c r="D18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="F18" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1">
-        <v>43442.52182872685</v>
+      <c r="E18" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>43442.5218287269</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>6</v>
@@ -921,16 +987,16 @@
       <c r="D19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="F19" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1">
-        <v>43442.522178865736</v>
+      <c r="E19" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>43442.5221788657</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>6</v>
@@ -941,16 +1007,16 @@
       <c r="D20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="F20" s="2">
+      <c r="E20" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F20" s="2" t="n">
         <v>4.4</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1">
-        <v>43442.52251738426</v>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>43442.5225173843</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>6</v>
@@ -961,16 +1027,16 @@
       <c r="D21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="F21" s="2">
+      <c r="E21" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F21" s="2" t="n">
         <v>4.2</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1">
-        <v>43442.52274987269</v>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>43442.5227498727</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>6</v>
@@ -981,16 +1047,16 @@
       <c r="D22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="F22" s="2">
+      <c r="E22" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F22" s="2" t="n">
         <v>4.1</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1">
-        <v>43442.52436613426</v>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>43442.5243661343</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>29</v>
@@ -1004,13 +1070,13 @@
       <c r="E23" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1">
-        <v>43442.52482006945</v>
+      <c r="F23" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>43442.5248200694</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>29</v>
@@ -1021,16 +1087,16 @@
       <c r="D24" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="F24" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1">
-        <v>43442.52535777778</v>
+      <c r="E24" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>43442.5253577778</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>29</v>
@@ -1041,16 +1107,16 @@
       <c r="D25" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="F25" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1">
-        <v>43442.52631253473</v>
+      <c r="E25" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>43442.5263125347</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>29</v>
@@ -1061,16 +1127,16 @@
       <c r="D26" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F26" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1">
-        <v>43442.526912789355</v>
+      <c r="E26" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>43442.5269127894</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>29</v>
@@ -1081,16 +1147,16 @@
       <c r="D27" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F27" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1">
-        <v>43442.530944872684</v>
+      <c r="E27" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>43442.5309448727</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>29</v>
@@ -1101,16 +1167,16 @@
       <c r="D28" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F28" s="2">
+      <c r="E28" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F28" s="2" t="n">
         <v>3.8</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1">
-        <v>43442.53118388889</v>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>43442.5311838889</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>29</v>
@@ -1121,16 +1187,16 @@
       <c r="D29" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F29" s="2">
+      <c r="E29" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F29" s="2" t="n">
         <v>3.2</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1">
-        <v>43442.532709618055</v>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>43442.5327096181</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>29</v>
@@ -1141,16 +1207,16 @@
       <c r="D30" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F30" s="2">
+      <c r="E30" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F30" s="2" t="n">
         <v>3.1</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1">
-        <v>43442.533007418984</v>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>43442.533007419</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>29</v>
@@ -1161,16 +1227,16 @@
       <c r="D31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E31" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F31" s="2">
+      <c r="E31" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F31" s="2" t="n">
         <v>4.1</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1">
-        <v>43442.54636097222</v>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>43442.5463609722</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>6</v>
@@ -1181,16 +1247,16 @@
       <c r="D32" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="F32" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1">
-        <v>43442.558581261575</v>
+      <c r="E32" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F32" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <v>43442.5585812616</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>6</v>
@@ -1201,16 +1267,16 @@
       <c r="D33" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E33" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F33" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1">
-        <v>43442.55897224537</v>
+      <c r="E33" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F33" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
+        <v>43442.5589722454</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>6</v>
@@ -1221,16 +1287,16 @@
       <c r="D34" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E34" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="F34" s="2">
+      <c r="E34" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F34" s="2" t="n">
         <v>4.1</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1">
-        <v>43442.559193090274</v>
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
+        <v>43442.5591930903</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>6</v>
@@ -1241,16 +1307,16 @@
       <c r="D35" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="F35" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1">
-        <v>43442.55943480324</v>
+      <c r="E35" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F35" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
+        <v>43442.5594348032</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>6</v>
@@ -1261,16 +1327,16 @@
       <c r="D36" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E36" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="F36" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1">
-        <v>43442.55964460648</v>
+      <c r="E36" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F36" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
+        <v>43442.5596446065</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>6</v>
@@ -1281,16 +1347,16 @@
       <c r="D37" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E37" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="F37" s="2">
+      <c r="E37" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F37" s="2" t="n">
         <v>4.5</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1">
-        <v>43442.55987506945</v>
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
+        <v>43442.5598750695</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>6</v>
@@ -1301,16 +1367,16 @@
       <c r="D38" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E38" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="F38" s="2">
+      <c r="E38" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F38" s="2" t="n">
         <v>4.2</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1">
-        <v>43442.560133611114</v>
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
+        <v>43442.5601336111</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>6</v>
@@ -1321,16 +1387,16 @@
       <c r="D39" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E39" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="F39" s="2">
+      <c r="E39" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F39" s="2" t="n">
         <v>4.1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1">
-        <v>43442.563146562505</v>
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
+        <v>43442.5631465625</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>6</v>
@@ -1341,16 +1407,16 @@
       <c r="D40" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E40" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F40" s="2">
+      <c r="E40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F40" s="2" t="n">
         <v>4.2</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1">
-        <v>43442.56340466435</v>
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
+        <v>43442.5634046644</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>6</v>
@@ -1361,16 +1427,16 @@
       <c r="D41" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E41" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F41" s="2">
+      <c r="E41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F41" s="2" t="n">
         <v>4.2</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1">
-        <v>43442.56360393518</v>
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
+        <v>43442.5636039352</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>6</v>
@@ -1381,16 +1447,16 @@
       <c r="D42" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E42" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F42" s="2">
+      <c r="E42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F42" s="2" t="n">
         <v>4.2</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1">
-        <v>43442.56388083333</v>
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
+        <v>43442.5638808333</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>6</v>
@@ -1401,16 +1467,16 @@
       <c r="D43" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E43" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F43" s="2">
+      <c r="E43" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F43" s="2" t="n">
         <v>4.5</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1">
-        <v>43442.565660127315</v>
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
+        <v>43442.5656601273</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>6</v>
@@ -1421,16 +1487,16 @@
       <c r="D44" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E44" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F44" s="2">
+      <c r="E44" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F44" s="2" t="n">
         <v>3.7</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1">
-        <v>43442.56600486111</v>
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="n">
+        <v>43442.5660048611</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>6</v>
@@ -1441,16 +1507,16 @@
       <c r="D45" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E45" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="F45" s="2">
+      <c r="E45" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F45" s="2" t="n">
         <v>4.1</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1">
-        <v>43442.56636055556</v>
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="n">
+        <v>43442.5663605556</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>6</v>
@@ -1461,16 +1527,16 @@
       <c r="D46" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E46" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F46" s="2">
+      <c r="E46" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F46" s="2" t="n">
         <v>3.8</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1">
-        <v>43442.57343377315</v>
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="n">
+        <v>43442.5734337732</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>29</v>
@@ -1481,16 +1547,16 @@
       <c r="D47" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E47" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F47" s="2">
+      <c r="E47" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F47" s="2" t="n">
         <v>4.1</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1">
-        <v>43442.57368796296</v>
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="n">
+        <v>43442.573687963</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>29</v>
@@ -1504,13 +1570,13 @@
       <c r="E48" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="2" t="n">
         <v>3.1</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1">
-        <v>43442.579475844905</v>
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="n">
+        <v>43442.5794758449</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>29</v>
@@ -1524,13 +1590,13 @@
       <c r="E49" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F49" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1">
-        <v>43442.581800370375</v>
+      <c r="F49" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="n">
+        <v>43442.5818003704</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>29</v>
@@ -1541,16 +1607,16 @@
       <c r="D50" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E50" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F50" s="2">
+      <c r="E50" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F50" s="2" t="n">
         <v>3.3</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1">
-        <v>43442.582593761574</v>
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="n">
+        <v>43442.5825937616</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>29</v>
@@ -1564,13 +1630,13 @@
       <c r="E51" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="2" t="n">
         <v>3.6</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1">
-        <v>43442.58269454861</v>
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="n">
+        <v>43442.5826945486</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>29</v>
@@ -1581,16 +1647,16 @@
       <c r="D52" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E52" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="F52" s="2">
+      <c r="E52" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F52" s="2" t="n">
         <v>2.4</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1">
-        <v>43442.58332421296</v>
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="n">
+        <v>43442.583324213</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>29</v>
@@ -1604,13 +1670,13 @@
       <c r="E53" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53" s="2" t="n">
         <v>3.1</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1">
-        <v>43442.58437884259</v>
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="n">
+        <v>43442.5843788426</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>29</v>
@@ -1621,15 +1687,15 @@
       <c r="D54" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E54" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F54" s="2">
+      <c r="E54" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F54" s="2" t="n">
         <v>3.2</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1">
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="n">
         <v>43442.5849493287</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -1641,16 +1707,16 @@
       <c r="D55" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E55" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F55" s="2">
+      <c r="E55" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F55" s="2" t="n">
         <v>3.6</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1">
-        <v>43442.58527332176</v>
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="n">
+        <v>43442.5852733218</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>29</v>
@@ -1664,13 +1730,13 @@
       <c r="E56" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F56" s="2" t="n">
         <v>3.2</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1">
-        <v>43442.58539865741</v>
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="n">
+        <v>43442.5853986574</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>29</v>
@@ -1681,16 +1747,16 @@
       <c r="D57" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E57" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="F57" s="2">
+      <c r="E57" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F57" s="2" t="n">
         <v>4.1</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1">
-        <v>43442.64083296296</v>
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="n">
+        <v>43442.640832963</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>29</v>
@@ -1704,13 +1770,13 @@
       <c r="E58" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F58" s="2" t="n">
         <v>3.9</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1">
-        <v>43442.647028217594</v>
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="n">
+        <v>43442.6470282176</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>6</v>
@@ -1721,15 +1787,15 @@
       <c r="D59" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E59" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F59" s="2">
+      <c r="E59" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F59" s="2" t="n">
         <v>4.2</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1">
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="n">
         <v>43442.6473927662</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -1741,16 +1807,16 @@
       <c r="D60" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E60" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F60" s="2">
+      <c r="E60" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F60" s="2" t="n">
         <v>3.8</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1">
-        <v>43442.647612071756</v>
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="n">
+        <v>43442.6476120718</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>6</v>
@@ -1761,16 +1827,16 @@
       <c r="D61" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E61" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F61" s="2">
+      <c r="E61" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F61" s="2" t="n">
         <v>3.9</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1">
-        <v>43442.648583055554</v>
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="n">
+        <v>43442.6485830556</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>6</v>
@@ -1781,16 +1847,16 @@
       <c r="D62" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E62" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F62" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1">
-        <v>43442.64879662037</v>
+      <c r="E62" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F62" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="n">
+        <v>43442.6487966204</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>6</v>
@@ -1801,16 +1867,16 @@
       <c r="D63" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E63" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F63" s="2">
+      <c r="E63" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F63" s="2" t="n">
         <v>4.8</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1">
-        <v>43442.649002465274</v>
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="n">
+        <v>43442.6490024653</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>6</v>
@@ -1821,16 +1887,16 @@
       <c r="D64" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E64" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F64" s="2">
+      <c r="E64" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F64" s="2" t="n">
         <v>3.8</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1">
-        <v>43442.64919650463</v>
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="n">
+        <v>43442.6491965046</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>6</v>
@@ -1841,16 +1907,16 @@
       <c r="D65" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E65" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F65" s="2">
+      <c r="E65" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F65" s="2" t="n">
         <v>3.2</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1">
-        <v>43442.64966616898</v>
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="n">
+        <v>43442.649666169</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>6</v>
@@ -1861,16 +1927,16 @@
       <c r="D66" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E66" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="F66" s="2">
+      <c r="E66" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F66" s="2" t="n">
         <v>3.9</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1">
-        <v>43442.64981837963</v>
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="n">
+        <v>43442.6498183796</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>6</v>
@@ -1881,16 +1947,16 @@
       <c r="D67" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E67" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="F67" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1">
-        <v>43442.65002645833</v>
+      <c r="E67" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F67" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="n">
+        <v>43442.6500264583</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>6</v>
@@ -1901,16 +1967,16 @@
       <c r="D68" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E68" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="F68" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1">
-        <v>43442.650243703705</v>
+      <c r="E68" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F68" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="n">
+        <v>43442.6502437037</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>6</v>
@@ -1921,16 +1987,16 @@
       <c r="D69" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E69" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="F69" s="2">
+      <c r="E69" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F69" s="2" t="n">
         <v>4.3</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1">
-        <v>43442.65045207176</v>
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="n">
+        <v>43442.6504520718</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>6</v>
@@ -1941,16 +2007,16 @@
       <c r="D70" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E70" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="F70" s="2">
+      <c r="E70" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F70" s="2" t="n">
         <v>2.8</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1">
-        <v>43442.65071706018</v>
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="n">
+        <v>43442.6507170602</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>6</v>
@@ -1961,16 +2027,16 @@
       <c r="D71" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E71" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="F71" s="2">
+      <c r="E71" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F71" s="2" t="n">
         <v>4.9</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1">
-        <v>43442.65090111111</v>
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="n">
+        <v>43442.6509011111</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>6</v>
@@ -1981,16 +2047,16 @@
       <c r="D72" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E72" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="F72" s="2">
+      <c r="E72" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F72" s="2" t="n">
         <v>4.2</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1">
-        <v>43442.65111020833</v>
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="n">
+        <v>43442.6511102083</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>6</v>
@@ -2001,16 +2067,16 @@
       <c r="D73" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E73" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="F73" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1">
-        <v>43442.651277337965</v>
+      <c r="E73" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F73" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="n">
+        <v>43442.651277338</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>6</v>
@@ -2021,16 +2087,16 @@
       <c r="D74" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E74" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="F74" s="2">
+      <c r="E74" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F74" s="2" t="n">
         <v>2.5</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1">
-        <v>43442.65147040509</v>
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="n">
+        <v>43442.6514704051</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>6</v>
@@ -2041,16 +2107,16 @@
       <c r="D75" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E75" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="F75" s="2">
+      <c r="E75" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F75" s="2" t="n">
         <v>4.2</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1">
-        <v>43442.65169111111</v>
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="n">
+        <v>43442.6516911111</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>6</v>
@@ -2061,16 +2127,16 @@
       <c r="D76" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E76" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="F76" s="2">
+      <c r="E76" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F76" s="2" t="n">
         <v>4.5</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1">
-        <v>43442.655371712965</v>
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="n">
+        <v>43442.655371713</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>85</v>
@@ -2081,16 +2147,16 @@
       <c r="D77" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E77" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="F77" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1">
-        <v>43442.655836527774</v>
+      <c r="E77" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F77" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="n">
+        <v>43442.6558365278</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>85</v>
@@ -2101,16 +2167,16 @@
       <c r="D78" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E78" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="F78" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1">
-        <v>43442.655974988425</v>
+      <c r="E78" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F78" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="n">
+        <v>43442.6559749884</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>6</v>
@@ -2121,16 +2187,16 @@
       <c r="D79" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E79" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F79" s="2">
+      <c r="E79" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F79" s="2" t="n">
         <v>4.1</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1">
-        <v>43442.65618179398</v>
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="n">
+        <v>43442.656181794</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>85</v>
@@ -2141,16 +2207,16 @@
       <c r="D80" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E80" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F80" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1">
-        <v>43442.65633114583</v>
+      <c r="E80" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F80" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="n">
+        <v>43442.6563311458</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>6</v>
@@ -2161,16 +2227,16 @@
       <c r="D81" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E81" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F81" s="2">
+      <c r="E81" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F81" s="2" t="n">
         <v>4.1</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1">
-        <v>43442.65651869213</v>
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="n">
+        <v>43442.6565186921</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>6</v>
@@ -2181,16 +2247,16 @@
       <c r="D82" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E82" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F82" s="2">
+      <c r="E82" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F82" s="2" t="n">
         <v>4.1</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="1">
-        <v>43442.65688458333</v>
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="n">
+        <v>43442.6568845833</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>85</v>
@@ -2201,16 +2267,16 @@
       <c r="D83" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E83" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="F83" s="2">
+      <c r="E83" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F83" s="2" t="n">
         <v>4.9</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1">
-        <v>43442.65779925926</v>
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="n">
+        <v>43442.6577992593</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>85</v>
@@ -2221,16 +2287,16 @@
       <c r="D84" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E84" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F84" s="2">
+      <c r="E84" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F84" s="2" t="n">
         <v>4.8</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1">
-        <v>43442.65831322917</v>
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="n">
+        <v>43442.6583132292</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>85</v>
@@ -2241,16 +2307,16 @@
       <c r="D85" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E85" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="F85" s="2">
+      <c r="E85" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F85" s="2" t="n">
         <v>4.5</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1">
-        <v>43442.659533576385</v>
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="n">
+        <v>43442.6595335764</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>85</v>
@@ -2261,16 +2327,16 @@
       <c r="D86" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E86" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F86" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1">
-        <v>43442.66203438657</v>
+      <c r="E86" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F86" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="n">
+        <v>43442.6620343866</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>85</v>
@@ -2281,15 +2347,15 @@
       <c r="D87" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E87" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F87" s="2">
+      <c r="E87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F87" s="2" t="n">
         <v>2.8</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1">
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="n">
         <v>43442.6624096875</v>
       </c>
       <c r="B88" s="2" t="s">
@@ -2301,16 +2367,16 @@
       <c r="D88" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E88" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="F88" s="2">
+      <c r="E88" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F88" s="2" t="n">
         <v>3.5</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1">
-        <v>43442.66265356481</v>
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="n">
+        <v>43442.6626535648</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>6</v>
@@ -2321,16 +2387,16 @@
       <c r="D89" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E89" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="F89" s="2">
+      <c r="E89" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F89" s="2" t="n">
         <v>2.9</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1">
-        <v>43442.662885300924</v>
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="n">
+        <v>43442.6628853009</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>85</v>
@@ -2341,16 +2407,16 @@
       <c r="D90" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E90" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="F90" s="2">
+      <c r="E90" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F90" s="2" t="n">
         <v>3.5</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1">
-        <v>43442.662938865746</v>
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="n">
+        <v>43442.6629388658</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>6</v>
@@ -2361,16 +2427,16 @@
       <c r="D91" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E91" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="F91" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1">
-        <v>43442.66325745371</v>
+      <c r="E91" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F91" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="n">
+        <v>43442.6632574537</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>6</v>
@@ -2381,16 +2447,16 @@
       <c r="D92" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E92" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F92" s="2">
+      <c r="E92" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F92" s="2" t="n">
         <v>4.1</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1">
-        <v>43442.66330384259</v>
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="n">
+        <v>43442.6633038426</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>85</v>
@@ -2401,16 +2467,16 @@
       <c r="D93" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E93" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="F93" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1">
-        <v>43442.66351732639</v>
+      <c r="E93" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F93" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="n">
+        <v>43442.6635173264</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>96</v>
@@ -2424,13 +2490,13 @@
       <c r="E94" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F94" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1">
-        <v>43442.66360431713</v>
+      <c r="F94" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="n">
+        <v>43442.6636043171</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>6</v>
@@ -2441,16 +2507,16 @@
       <c r="D95" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E95" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F95" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1">
-        <v>43442.66391945602</v>
+      <c r="E95" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F95" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="n">
+        <v>43442.663919456</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>6</v>
@@ -2461,16 +2527,16 @@
       <c r="D96" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E96" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F96" s="2">
+      <c r="E96" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F96" s="2" t="n">
         <v>4.1</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1">
-        <v>43442.664132314814</v>
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="n">
+        <v>43442.6641323148</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>6</v>
@@ -2481,16 +2547,16 @@
       <c r="D97" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E97" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F97" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1">
-        <v>43442.66436061343</v>
+      <c r="E97" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F97" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="n">
+        <v>43442.6643606134</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>101</v>
@@ -2501,16 +2567,16 @@
       <c r="D98" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E98" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F98" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1">
-        <v>43442.664419884255</v>
+      <c r="E98" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F98" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="n">
+        <v>43442.6644198843</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>6</v>
@@ -2521,16 +2587,16 @@
       <c r="D99" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E99" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="F99" s="2">
+      <c r="E99" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F99" s="2" t="n">
         <v>3.9</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1">
-        <v>43442.66457703704</v>
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="n">
+        <v>43442.664577037</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>101</v>
@@ -2541,16 +2607,16 @@
       <c r="D100" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E100" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F100" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1">
-        <v>43442.66478502315</v>
+      <c r="E100" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F100" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="n">
+        <v>43442.6647850232</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>101</v>
@@ -2561,15 +2627,15 @@
       <c r="D101" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E101" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F101" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1">
+      <c r="E101" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F101" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="n">
         <v>43442.66497625</v>
       </c>
       <c r="B102" s="2" t="s">
@@ -2581,16 +2647,16 @@
       <c r="D102" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E102" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F102" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1">
-        <v>43442.66518921296</v>
+      <c r="E102" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F102" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="n">
+        <v>43442.665189213</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>101</v>
@@ -2601,16 +2667,16 @@
       <c r="D103" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E103" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F103" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1">
-        <v>43442.66572128472</v>
+      <c r="E103" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F103" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="n">
+        <v>43442.6657212847</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>101</v>
@@ -2621,16 +2687,16 @@
       <c r="D104" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E104" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F104" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1">
-        <v>43442.66607216436</v>
+      <c r="E104" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F104" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="n">
+        <v>43442.6660721644</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>101</v>
@@ -2641,16 +2707,16 @@
       <c r="D105" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E105" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="F105" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1">
-        <v>43442.66633083334</v>
+      <c r="E105" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F105" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="n">
+        <v>43442.6663308333</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>101</v>
@@ -2661,15 +2727,15 @@
       <c r="D106" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E106" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="F106" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1">
+      <c r="E106" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F106" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="n">
         <v>43442.66651625</v>
       </c>
       <c r="B107" s="2" t="s">
@@ -2681,16 +2747,16 @@
       <c r="D107" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E107" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F107" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1">
-        <v>43442.66674100695</v>
+      <c r="E107" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F107" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="n">
+        <v>43442.6667410069</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>101</v>
@@ -2701,16 +2767,16 @@
       <c r="D108" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E108" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F108" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1">
-        <v>43442.66689361111</v>
+      <c r="E108" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F108" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="n">
+        <v>43442.6668936111</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>101</v>
@@ -2721,16 +2787,16 @@
       <c r="D109" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E109" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F109" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1">
-        <v>43442.66713642361</v>
+      <c r="E109" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F109" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="n">
+        <v>43442.6671364236</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>101</v>
@@ -2741,16 +2807,16 @@
       <c r="D110" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E110" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="F110" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1">
-        <v>43442.66744260417</v>
+      <c r="E110" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F110" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="n">
+        <v>43442.6674426042</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>29</v>
@@ -2764,12 +2830,12 @@
       <c r="E111" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F111" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1">
+      <c r="F111" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="n">
         <v>43442.6677133912</v>
       </c>
       <c r="B112" s="2" t="s">
@@ -2784,13 +2850,13 @@
       <c r="E112" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F112" s="2">
+      <c r="F112" s="2" t="n">
         <v>4.5</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="1">
-        <v>43442.66831783565</v>
+    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="n">
+        <v>43442.6683178357</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>29</v>
@@ -2804,13 +2870,13 @@
       <c r="E113" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F113" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1">
-        <v>43442.668369074076</v>
+      <c r="F113" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="1" t="n">
+        <v>43442.6683690741</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>111</v>
@@ -2821,15 +2887,15 @@
       <c r="D114" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E114" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F114" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1">
+      <c r="E114" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F114" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="1" t="n">
         <v>43442.6687365625</v>
       </c>
       <c r="B115" s="2" t="s">
@@ -2841,16 +2907,16 @@
       <c r="D115" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E115" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="F115" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1">
-        <v>43442.66904267361</v>
+      <c r="E115" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F115" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="1" t="n">
+        <v>43442.6690426736</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>111</v>
@@ -2861,16 +2927,16 @@
       <c r="D116" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E116" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="F116" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1">
-        <v>43442.66926350695</v>
+      <c r="E116" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F116" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="n">
+        <v>43442.669263507</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>111</v>
@@ -2881,16 +2947,16 @@
       <c r="D117" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E117" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="F117" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1">
-        <v>43442.66951918982</v>
+      <c r="E117" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F117" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="1" t="n">
+        <v>43442.6695191898</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>111</v>
@@ -2901,15 +2967,15 @@
       <c r="D118" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E118" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="F118" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1">
+      <c r="E118" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F118" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="1" t="n">
         <v>43442.6695987037</v>
       </c>
       <c r="B119" s="2" t="s">
@@ -2924,13 +2990,13 @@
       <c r="E119" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F119" s="2">
+      <c r="F119" s="2" t="n">
         <v>3.8</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="1">
-        <v>43442.669819560186</v>
+    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="1" t="n">
+        <v>43442.6698195602</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>111</v>
@@ -2941,16 +3007,16 @@
       <c r="D120" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E120" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="F120" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1">
-        <v>43442.66989491898</v>
+      <c r="E120" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F120" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="1" t="n">
+        <v>43442.669894919</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>29</v>
@@ -2964,13 +3030,13 @@
       <c r="E121" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F121" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1">
-        <v>43442.670100358795</v>
+      <c r="F121" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="1" t="n">
+        <v>43442.6701003588</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>29</v>
@@ -2984,13 +3050,13 @@
       <c r="E122" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F122" s="2">
+      <c r="F122" s="2" t="n">
         <v>3.2</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="1">
-        <v>43442.67015276621</v>
+    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="1" t="n">
+        <v>43442.6701527662</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>111</v>
@@ -3001,16 +3067,16 @@
       <c r="D123" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E123" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="F123" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1">
-        <v>43442.670325706014</v>
+      <c r="E123" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F123" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="1" t="n">
+        <v>43442.670325706</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>29</v>
@@ -3024,13 +3090,13 @@
       <c r="E124" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F124" s="2">
+      <c r="F124" s="2" t="n">
         <v>2.8</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="1">
-        <v>43442.671461631944</v>
+    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="1" t="n">
+        <v>43442.671461632</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>29</v>
@@ -3041,16 +3107,16 @@
       <c r="D125" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E125" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F125" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1">
-        <v>43442.67203780093</v>
+      <c r="E125" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F125" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="1" t="n">
+        <v>43442.6720378009</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>29</v>
@@ -3064,13 +3130,13 @@
       <c r="E126" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F126" s="2">
+      <c r="F126" s="2" t="n">
         <v>2.3</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="1">
-        <v>43442.67305268519</v>
+    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1" t="n">
+        <v>43442.6730526852</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>29</v>
@@ -3084,13 +3150,13 @@
       <c r="E127" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F127" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1">
-        <v>43442.67393534722</v>
+      <c r="F127" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="1" t="n">
+        <v>43442.6739353472</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>119</v>
@@ -3101,16 +3167,16 @@
       <c r="D128" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E128" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="F128" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1">
-        <v>43442.67426762731</v>
+      <c r="E128" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F128" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="1" t="n">
+        <v>43442.6742676273</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>119</v>
@@ -3121,16 +3187,16 @@
       <c r="D129" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E129" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="F129" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1">
-        <v>43442.674850474534</v>
+      <c r="E129" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F129" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="1" t="n">
+        <v>43442.6748504745</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>119</v>
@@ -3141,16 +3207,16 @@
       <c r="D130" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E130" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F130" s="2">
+      <c r="E130" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F130" s="2" t="n">
         <v>4.7</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="1">
-        <v>43442.67525916667</v>
+    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="1" t="n">
+        <v>43442.6752591667</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>119</v>
@@ -3161,16 +3227,16 @@
       <c r="D131" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E131" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F131" s="2">
+      <c r="E131" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F131" s="2" t="n">
         <v>4.5</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="1">
-        <v>43442.675532002315</v>
+    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="1" t="n">
+        <v>43442.6755320023</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>119</v>
@@ -3181,16 +3247,16 @@
       <c r="D132" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E132" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F132" s="2">
+      <c r="E132" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F132" s="2" t="n">
         <v>4.2</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="1">
-        <v>43442.67595396991</v>
+    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="1" t="n">
+        <v>43442.6759539699</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>119</v>
@@ -3201,16 +3267,16 @@
       <c r="D133" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E133" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="F133" s="2">
+      <c r="E133" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F133" s="2" t="n">
         <v>4.7</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="1">
-        <v>43442.67722515046</v>
+    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="1" t="n">
+        <v>43442.6772251505</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>111</v>
@@ -3221,15 +3287,15 @@
       <c r="D134" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E134" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="F134" s="2">
+      <c r="E134" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F134" s="2" t="n">
         <v>4.9</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="1">
+    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="1" t="n">
         <v>43442.6783909375</v>
       </c>
       <c r="B135" s="2" t="s">
@@ -3241,16 +3307,16 @@
       <c r="D135" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E135" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="F135" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1">
-        <v>43442.68003884259</v>
+      <c r="E135" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F135" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="1" t="n">
+        <v>43442.6800388426</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>96</v>
@@ -3261,16 +3327,16 @@
       <c r="D136" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E136" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F136" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1">
-        <v>43442.68053096065</v>
+      <c r="E136" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F136" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="1" t="n">
+        <v>43442.6805309607</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>96</v>
@@ -3281,16 +3347,16 @@
       <c r="D137" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E137" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F137" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1">
-        <v>43442.68057628472</v>
+      <c r="E137" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F137" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="1" t="n">
+        <v>43442.6805762847</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>119</v>
@@ -3301,16 +3367,16 @@
       <c r="D138" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E138" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="F138" s="2">
+      <c r="E138" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F138" s="2" t="n">
         <v>4.1</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="1">
-        <v>43442.68106462963</v>
+    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="1" t="n">
+        <v>43442.6810646296</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>119</v>
@@ -3321,16 +3387,16 @@
       <c r="D139" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E139" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="F139" s="2">
+      <c r="E139" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F139" s="2" t="n">
         <v>3.9</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="1">
-        <v>43442.68160804398</v>
+    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="1" t="n">
+        <v>43442.681608044</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>119</v>
@@ -3341,16 +3407,16 @@
       <c r="D140" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E140" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="F140" s="2">
+      <c r="E140" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F140" s="2" t="n">
         <v>4.6</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="1">
-        <v>43442.68183636574</v>
+    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="n">
+        <v>43442.6818363657</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>96</v>
@@ -3361,16 +3427,16 @@
       <c r="D141" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E141" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F141" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1">
-        <v>43442.68192681713</v>
+      <c r="E141" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F141" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="1" t="n">
+        <v>43442.6819268171</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>111</v>
@@ -3381,16 +3447,16 @@
       <c r="D142" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E142" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F142" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1">
-        <v>43442.68199247685</v>
+      <c r="E142" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F142" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="1" t="n">
+        <v>43442.6819924768</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>119</v>
@@ -3401,16 +3467,16 @@
       <c r="D143" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E143" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="F143" s="2">
+      <c r="E143" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F143" s="2" t="n">
         <v>4.8</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="1">
-        <v>43442.682121412035</v>
+    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="1" t="n">
+        <v>43442.682121412</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>111</v>
@@ -3421,15 +3487,15 @@
       <c r="D144" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E144" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F144" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1">
+      <c r="E144" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F144" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="1" t="n">
         <v>43442.6823157176</v>
       </c>
       <c r="B145" s="2" t="s">
@@ -3441,16 +3507,16 @@
       <c r="D145" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E145" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="F145" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1">
-        <v>43442.682343645836</v>
+      <c r="E145" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F145" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="1" t="n">
+        <v>43442.6823436458</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>119</v>
@@ -3461,16 +3527,16 @@
       <c r="D146" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E146" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="F146" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1">
-        <v>43442.68246239584</v>
+      <c r="E146" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F146" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="1" t="n">
+        <v>43442.6824623958</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>111</v>
@@ -3481,16 +3547,16 @@
       <c r="D147" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E147" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="F147" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1">
-        <v>43442.68269761574</v>
+      <c r="E147" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F147" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="1" t="n">
+        <v>43442.6826976157</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>96</v>
@@ -3501,15 +3567,15 @@
       <c r="D148" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E148" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F148" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1">
+      <c r="E148" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F148" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="1" t="n">
         <v>43442.6826984838</v>
       </c>
       <c r="B149" s="2" t="s">
@@ -3521,15 +3587,15 @@
       <c r="D149" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E149" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="F149" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1">
+      <c r="E149" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F149" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="1" t="n">
         <v>43442.6828050926</v>
       </c>
       <c r="B150" s="2" t="s">
@@ -3541,16 +3607,16 @@
       <c r="D150" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E150" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="F150" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1">
-        <v>43442.68291524306</v>
+      <c r="E150" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F150" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="1" t="n">
+        <v>43442.6829152431</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>96</v>
@@ -3561,16 +3627,16 @@
       <c r="D151" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E151" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="F151" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1">
-        <v>43442.682990104164</v>
+      <c r="E151" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F151" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="1" t="n">
+        <v>43442.6829901042</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>111</v>
@@ -3581,16 +3647,16 @@
       <c r="D152" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E152" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="F152" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1">
-        <v>43442.68301685185</v>
+      <c r="E152" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F152" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="1" t="n">
+        <v>43442.6830168519</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>96</v>
@@ -3601,15 +3667,15 @@
       <c r="D153" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E153" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F153" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1">
+      <c r="E153" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F153" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="1" t="n">
         <v>43442.683169375</v>
       </c>
       <c r="B154" s="2" t="s">
@@ -3621,16 +3687,16 @@
       <c r="D154" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E154" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="F154" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1">
-        <v>43442.68328596065</v>
+      <c r="E154" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F154" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="1" t="n">
+        <v>43442.6832859607</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>96</v>
@@ -3641,16 +3707,16 @@
       <c r="D155" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E155" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="F155" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1">
-        <v>43442.683306226856</v>
+      <c r="E155" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F155" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="1" t="n">
+        <v>43442.6833062269</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>96</v>
@@ -3661,16 +3727,16 @@
       <c r="D156" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E156" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="F156" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1">
-        <v>43442.68341518518</v>
+      <c r="E156" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F156" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="1" t="n">
+        <v>43442.6834151852</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>111</v>
@@ -3681,16 +3747,16 @@
       <c r="D157" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E157" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="F157" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1">
-        <v>43442.68351621528</v>
+      <c r="E157" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F157" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="1" t="n">
+        <v>43442.6835162153</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>119</v>
@@ -3701,15 +3767,15 @@
       <c r="D158" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E158" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="F158" s="2">
+      <c r="E158" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F158" s="2" t="n">
         <v>4.7</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="1">
+    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="1" t="n">
         <v>43442.6835765162</v>
       </c>
       <c r="B159" s="2" t="s">
@@ -3721,16 +3787,16 @@
       <c r="D159" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E159" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="F159" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1">
-        <v>43442.68361196759</v>
+      <c r="E159" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F159" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="1" t="n">
+        <v>43442.6836119676</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>96</v>
@@ -3741,16 +3807,16 @@
       <c r="D160" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E160" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="F160" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1">
-        <v>43442.68374501157</v>
+      <c r="E160" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F160" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="1" t="n">
+        <v>43442.6837450116</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>96</v>
@@ -3761,16 +3827,16 @@
       <c r="D161" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E161" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="F161" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1">
-        <v>43442.68374703704</v>
+      <c r="E161" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F161" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="1" t="n">
+        <v>43442.683747037</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>111</v>
@@ -3781,16 +3847,16 @@
       <c r="D162" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E162" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="F162" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1">
-        <v>43442.68391190973</v>
+      <c r="E162" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F162" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="1" t="n">
+        <v>43442.6839119097</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>96</v>
@@ -3801,16 +3867,16 @@
       <c r="D163" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E163" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="F163" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1">
-        <v>43442.68392945602</v>
+      <c r="E163" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F163" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="1" t="n">
+        <v>43442.683929456</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>119</v>
@@ -3821,16 +3887,16 @@
       <c r="D164" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E164" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="F164" s="2">
+      <c r="E164" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F164" s="2" t="n">
         <v>4.7</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="1">
-        <v>43442.68393935185</v>
+    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="1" t="n">
+        <v>43442.6839393519</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>96</v>
@@ -3841,16 +3907,16 @@
       <c r="D165" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E165" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="F165" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1">
-        <v>43442.684043877314</v>
+      <c r="E165" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F165" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="1" t="n">
+        <v>43442.6840438773</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>96</v>
@@ -3861,16 +3927,16 @@
       <c r="D166" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E166" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="F166" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1">
-        <v>43442.68421923611</v>
+      <c r="E166" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F166" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="1" t="n">
+        <v>43442.6842192361</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>6</v>
@@ -3881,16 +3947,16 @@
       <c r="D167" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E167" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="F167" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1">
-        <v>43442.684247592595</v>
+      <c r="E167" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F167" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="1" t="n">
+        <v>43442.6842475926</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>119</v>
@@ -3901,16 +3967,16 @@
       <c r="D168" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E168" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="F168" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1">
-        <v>43442.684258090274</v>
+      <c r="E168" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F168" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="1" t="n">
+        <v>43442.6842580903</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>96</v>
@@ -3921,16 +3987,16 @@
       <c r="D169" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E169" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="F169" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1">
-        <v>43442.684329814816</v>
+      <c r="E169" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F169" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="1" t="n">
+        <v>43442.6843298148</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>96</v>
@@ -3941,16 +4007,16 @@
       <c r="D170" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E170" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="F170" s="2">
+      <c r="E170" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F170" s="2" t="n">
         <v>4.5</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" s="1">
-        <v>43442.68448459491</v>
+    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="1" t="n">
+        <v>43442.6844845949</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>96</v>
@@ -3961,16 +4027,16 @@
       <c r="D171" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E171" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="F171" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1">
-        <v>43442.68454834491</v>
+      <c r="E171" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F171" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="1" t="n">
+        <v>43442.6845483449</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>119</v>
@@ -3981,16 +4047,16 @@
       <c r="D172" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E172" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F172" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1">
-        <v>43442.684619583335</v>
+      <c r="E172" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F172" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="1" t="n">
+        <v>43442.6846195833</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>96</v>
@@ -4001,16 +4067,16 @@
       <c r="D173" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E173" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="F173" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1">
-        <v>43442.68471407407</v>
+      <c r="E173" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F173" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="1" t="n">
+        <v>43442.6847140741</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>96</v>
@@ -4021,16 +4087,16 @@
       <c r="D174" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E174" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="F174" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1">
-        <v>43442.68493162037</v>
+      <c r="E174" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F174" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="1" t="n">
+        <v>43442.6849316204</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>96</v>
@@ -4041,16 +4107,16 @@
       <c r="D175" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E175" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="F175" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1">
-        <v>43442.68495751158</v>
+      <c r="E175" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F175" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="1" t="n">
+        <v>43442.6849575116</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>119</v>
@@ -4061,16 +4127,16 @@
       <c r="D176" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E176" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F176" s="2">
+      <c r="E176" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F176" s="2" t="n">
         <v>4.6</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="1">
-        <v>43442.684974247684</v>
+    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="1" t="n">
+        <v>43442.6849742477</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>96</v>
@@ -4081,16 +4147,16 @@
       <c r="D177" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E177" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="F177" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1">
-        <v>43442.685043819445</v>
+      <c r="E177" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F177" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="1" t="n">
+        <v>43442.6850438195</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>96</v>
@@ -4101,16 +4167,16 @@
       <c r="D178" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E178" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="F178" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1">
-        <v>43442.685155949075</v>
+      <c r="E178" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F178" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="1" t="n">
+        <v>43442.6851559491</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>29</v>
@@ -4121,16 +4187,16 @@
       <c r="D179" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E179" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F179" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1">
-        <v>43442.68519913194</v>
+      <c r="E179" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F179" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="1" t="n">
+        <v>43442.6851991319</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>96</v>
@@ -4141,16 +4207,16 @@
       <c r="D180" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E180" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="F180" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1">
-        <v>43442.68532234954</v>
+      <c r="E180" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F180" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="1" t="n">
+        <v>43442.6853223495</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>96</v>
@@ -4161,16 +4227,16 @@
       <c r="D181" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E181" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F181" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1">
-        <v>43442.68539237269</v>
+      <c r="E181" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F181" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="1" t="n">
+        <v>43442.6853923727</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>96</v>
@@ -4181,16 +4247,16 @@
       <c r="D182" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E182" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="F182" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1">
-        <v>43442.68543262732</v>
+      <c r="E182" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F182" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="1" t="n">
+        <v>43442.6854326273</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>96</v>
@@ -4201,16 +4267,16 @@
       <c r="D183" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E183" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="F183" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1">
-        <v>43442.68564199074</v>
+      <c r="E183" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F183" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="1" t="n">
+        <v>43442.6856419907</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>96</v>
@@ -4221,16 +4287,16 @@
       <c r="D184" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E184" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="F184" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1">
-        <v>43442.68565560185</v>
+      <c r="E184" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F184" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="1" t="n">
+        <v>43442.6856556019</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>96</v>
@@ -4241,16 +4307,16 @@
       <c r="D185" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E185" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="F185" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1">
-        <v>43442.68568400463</v>
+      <c r="E185" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F185" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="1" t="n">
+        <v>43442.6856840046</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>119</v>
@@ -4261,16 +4327,16 @@
       <c r="D186" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E186" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F186" s="2">
+      <c r="E186" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F186" s="2" t="n">
         <v>4.1</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" s="1">
-        <v>43442.68582841435</v>
+    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="1" t="n">
+        <v>43442.6858284144</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>96</v>
@@ -4281,16 +4347,16 @@
       <c r="D187" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E187" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="F187" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1">
-        <v>43442.68589603009</v>
+      <c r="E187" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F187" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="1" t="n">
+        <v>43442.6858960301</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>96</v>
@@ -4301,16 +4367,16 @@
       <c r="D188" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E188" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="F188" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1">
-        <v>43442.685932928245</v>
+      <c r="E188" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F188" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="1" t="n">
+        <v>43442.6859329282</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>96</v>
@@ -4321,16 +4387,16 @@
       <c r="D189" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E189" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="F189" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1">
-        <v>43442.68607648148</v>
+      <c r="E189" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F189" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="1" t="n">
+        <v>43442.6860764815</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>96</v>
@@ -4341,16 +4407,16 @@
       <c r="D190" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E190" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="F190" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1">
-        <v>43442.686185150465</v>
+      <c r="E190" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F190" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="1" t="n">
+        <v>43442.6861851505</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>96</v>
@@ -4361,16 +4427,16 @@
       <c r="D191" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E191" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="F191" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1">
-        <v>43442.686215231486</v>
+      <c r="E191" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F191" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="1" t="n">
+        <v>43442.6862152315</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>96</v>
@@ -4381,16 +4447,16 @@
       <c r="D192" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E192" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="F192" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1">
-        <v>43442.68626527778</v>
+      <c r="E192" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F192" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="1" t="n">
+        <v>43442.6862652778</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>119</v>
@@ -4401,16 +4467,16 @@
       <c r="D193" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E193" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="F193" s="2">
+      <c r="E193" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F193" s="2" t="n">
         <v>3.5</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" s="1">
-        <v>43442.686373136574</v>
+    <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="1" t="n">
+        <v>43442.6863731366</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>6</v>
@@ -4421,16 +4487,16 @@
       <c r="D194" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E194" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F194" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1">
-        <v>43442.68660768519</v>
+      <c r="E194" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F194" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="1" t="n">
+        <v>43442.6866076852</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>119</v>
@@ -4441,16 +4507,16 @@
       <c r="D195" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E195" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="F195" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1">
-        <v>43442.68697667824</v>
+      <c r="E195" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F195" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="1" t="n">
+        <v>43442.6869766782</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>119</v>
@@ -4461,16 +4527,16 @@
       <c r="D196" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E196" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="F196" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1">
-        <v>43442.68753357639</v>
+      <c r="E196" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F196" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="1" t="n">
+        <v>43442.6875335764</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>119</v>
@@ -4481,16 +4547,16 @@
       <c r="D197" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E197" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="F197" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1">
-        <v>43442.68803267361</v>
+      <c r="E197" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F197" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="1" t="n">
+        <v>43442.6880326736</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>119</v>
@@ -4501,16 +4567,16 @@
       <c r="D198" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E198" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="F198" s="2">
+      <c r="E198" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F198" s="2" t="n">
         <v>3.7</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" s="1">
-        <v>43442.688394282406</v>
+    <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="1" t="n">
+        <v>43442.6883942824</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>119</v>
@@ -4521,16 +4587,16 @@
       <c r="D199" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E199" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="F199" s="2">
+      <c r="E199" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F199" s="2" t="n">
         <v>3.6</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" s="1">
-        <v>43442.68912686342</v>
+    <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="1" t="n">
+        <v>43442.6891268634</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>119</v>
@@ -4541,16 +4607,16 @@
       <c r="D200" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E200" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="F200" s="2">
+      <c r="E200" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F200" s="2" t="n">
         <v>4.5</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" s="1">
-        <v>43442.70261584491</v>
+    <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="1" t="n">
+        <v>43442.7026158449</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>11</v>
@@ -4561,14 +4627,20 @@
       <c r="D201" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E201" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="F201" s="2">
-        <v>5.0</v>
+      <c r="E201" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F201" s="2" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>